--- a/Papers/Directory.xlsx
+++ b/Papers/Directory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36820" yWindow="-7040" windowWidth="26140" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Kline 2005</t>
   </si>
   <si>
-    <t>/Users/Imperssonator/Dropbox/OFET Fab Table/Papers/</t>
-  </si>
-  <si>
     <t>Aiyar 2013</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Zen 2004</t>
+  </si>
+  <si>
+    <t>/Users/Imperssonator/Documents/MATLAB/OFET-Database/Papers/</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -518,17 +518,17 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,17 +553,17 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -578,22 +578,22 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -608,12 +608,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
